--- a/library images/Money_Management_Template.xlsx
+++ b/library images/Money_Management_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\PROJECT\library images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA6551-5165-478D-92BF-EFA61C4A2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49C0C09-2896-4336-B198-C7D3D80F1540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>food and binding</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>college lunch</t>
+  </si>
+  <si>
+    <t>internet</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
   <dimension ref="C4:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +616,7 @@
       </c>
       <c r="J7">
         <f>SUM(D5:D32)</f>
-        <v>6199</v>
+        <v>13096</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
@@ -648,7 +657,7 @@
       </c>
       <c r="J9">
         <f>J4-J7</f>
-        <v>10501</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
@@ -788,31 +797,49 @@
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>5272</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>1500</v>
+      </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>125</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L20" t="s">
         <v>13</v>
       </c>
@@ -831,11 +858,11 @@
       </c>
       <c r="M21" s="8">
         <f>N21/J4</f>
-        <v>1.0778443113772455E-2</v>
+        <v>0.10808383233532934</v>
       </c>
       <c r="N21">
         <f>SUMIF(H:H,"Needs",D:D)</f>
-        <v>180</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -852,11 +879,11 @@
       </c>
       <c r="M22" s="8">
         <f>N22/J4</f>
-        <v>0.36041916167664673</v>
+        <v>0.67610778443113773</v>
       </c>
       <c r="N22">
         <f>SUMIF(H:H,"Wants",D:D)</f>
-        <v>6019</v>
+        <v>11291</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
